--- a/ProyectoWeb/3SCRUM/11. PlanificacionSprint1.xlsx
+++ b/ProyectoWeb/3SCRUM/11. PlanificacionSprint1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Espe\Cuarto Semestre\Desarrollo Software\Proyecto\Grupo-MET-de-Software\ProyectoWeb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Espe\Cuarto Semestre\Desarrollo Software\Proyecto\Grupo-MET-de-Software\ProyectoWeb\3SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B21D76-8277-487B-BF8A-1BD0B02107D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AA73E9-4743-4867-922D-277BB2526839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1896" windowWidth="21144" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="4" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
   <si>
     <t>Start Date</t>
   </si>
@@ -235,9 +235,6 @@
     <t>No iniciado</t>
   </si>
   <si>
-    <t>En proceso</t>
-  </si>
-  <si>
     <t>Aceptado</t>
   </si>
   <si>
@@ -253,33 +250,9 @@
     <t>HU1-1</t>
   </si>
   <si>
-    <t>HU2-1</t>
-  </si>
-  <si>
-    <t>HU2-2</t>
-  </si>
-  <si>
-    <t>HU2-3</t>
-  </si>
-  <si>
     <t>HU1-2</t>
   </si>
   <si>
-    <t>Consultar Docente Tiempo Completo</t>
-  </si>
-  <si>
-    <t>Consultar Docente Tiempo Parcial</t>
-  </si>
-  <si>
-    <t>Visualizar la información de cada docente de tiempo completo</t>
-  </si>
-  <si>
-    <t>Visualizar la información de cada docente de tiempo parcial</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Subir actualización datos de 10 profesores</t>
-  </si>
-  <si>
     <t>Bárbara</t>
   </si>
   <si>
@@ -310,15 +283,6 @@
     <t>consultar información específica</t>
   </si>
   <si>
-    <t>HU2-4</t>
-  </si>
-  <si>
-    <t>HU2-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Subir actualización datos de 7 profesores</t>
-  </si>
-  <si>
     <t>BÁRBARA</t>
   </si>
   <si>
@@ -331,14 +295,47 @@
     <t>FERNANDO</t>
   </si>
   <si>
-    <t>In Progress</t>
+    <t>Consultar Docentes</t>
+  </si>
+  <si>
+    <t>Visualizar la información de cada docente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualizar la información de cada docente </t>
+  </si>
+  <si>
+    <t>HU1-6</t>
+  </si>
+  <si>
+    <t>HU1-7</t>
+  </si>
+  <si>
+    <t>HU1-8</t>
+  </si>
+  <si>
+    <t>HU1-9</t>
+  </si>
+  <si>
+    <t>HU1-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Subir actualización datos de 10 profesores Tiempo Completo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Subir actualización datos de 7 profesores Tiempo Parcial</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Subir actualización datos de 6 profesores Tiempo Parcial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +408,12 @@
       <color theme="1"/>
       <name val="Segoe UI Light"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -891,7 +894,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -955,12 +957,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="8" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="29">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1045,24 +1174,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1093,24 +1204,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1150,24 +1243,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1198,24 +1273,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1255,24 +1312,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1306,24 +1345,6 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1339,24 +1360,6 @@
           <color indexed="64"/>
         </right>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1832,34 +1835,34 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.88</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.759999999999998</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.64</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.52</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.399999999999999</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.28</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.16</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.04</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.919999999999998</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.799999999999999</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1994,6 +1997,15 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2801,34 +2813,34 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SprintBacklog" displayName="SprintBacklog" ref="A2:G13" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <autoFilter ref="A2:G12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="18" totalsRowDxfId="5">
       <calculatedColumnFormula>IFERROR(B2+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="16" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="15" totalsRowDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1">
       <calculatedColumnFormula>SprintBacklog[[#This Row],[Estimated Hours]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="13" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D13" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A2:D13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="9">
       <calculatedColumnFormula>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="8">
       <calculatedColumnFormula>TotalHours-(Table3[Work Day]*DevRate)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3099,8 +3111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="D1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3111,59 +3123,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="44" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>62</v>
+      <c r="D2" s="40" t="s">
+        <v>72</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="34" t="s">
-        <v>52</v>
+      <c r="H2" s="75" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -3172,27 +3184,19 @@
       <c r="C3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>52</v>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="33" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -3201,30 +3205,30 @@
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="33" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="25"/>
       <c r="F5" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="32"/>
+      <c r="H5" s="34" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3237,11 +3241,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="B7" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="7" width="20.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
@@ -3276,16 +3283,16 @@
         <v>24</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="F2" s="20" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="20" t="s">
@@ -3297,128 +3304,128 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="48" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50" t="s">
+      <c r="H3" s="48"/>
+      <c r="I3" s="49" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
-      <c r="B4" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="53">
+      <c r="B4" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="61"/>
+      <c r="I4" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="53">
+      <c r="H5" s="61"/>
+      <c r="I5" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
-      <c r="B6" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="53">
+      <c r="B6" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="61"/>
+      <c r="I6" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
-      <c r="B7" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53">
+      <c r="B7" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19"/>
-      <c r="B8" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="69" t="s">
+      <c r="B8" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="56">
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19"/>
       <c r="B9" s="18"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="60">
+      <c r="H9" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="59">
         <f>SUM(I4:I8)</f>
         <v>13</v>
       </c>
@@ -3494,115 +3501,115 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="60"/>
+      <c r="I13" s="56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="H14" s="61"/>
+      <c r="I14" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="61"/>
+      <c r="I15" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="61"/>
+      <c r="I16" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="62"/>
-      <c r="I14" s="53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="63"/>
-      <c r="I17" s="56">
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="62"/>
+      <c r="I17" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="64"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="60">
+      <c r="B18" s="63"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="59">
         <f>SUM(I13:I17)</f>
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="H19" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="58">
+      <c r="H19" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="57">
         <f>I9+I18</f>
         <v>22</v>
       </c>
@@ -3631,8 +3638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -3658,7 +3665,7 @@
     </row>
     <row r="3" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="6">
-        <v>44576</v>
+        <v>44582</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -3670,7 +3677,7 @@
       </c>
       <c r="B4" s="3">
         <f>NETWORKDAYS(B2,B3)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -3679,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
@@ -3731,7 +3738,7 @@
       </c>
       <c r="B10" s="3">
         <f>IFERROR(B9/B4,0)</f>
-        <v>1.1200000000000001</v>
+        <v>0.89600000000000013</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -3770,7 +3777,7 @@
   <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -3820,17 +3827,17 @@
         <v>3</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F3" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
         <v>3</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -3845,17 +3852,17 @@
         <v>3</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F4" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
         <v>3</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -3870,17 +3877,17 @@
         <v>3</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F5" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
         <v>3</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -3895,42 +3902,42 @@
         <v>3</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F6" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
         <v>3</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="66">
+      <c r="A7" s="65">
         <v>1</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="67">
+      <c r="C7" s="66">
         <v>1</v>
       </c>
-      <c r="D7" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="66">
+      <c r="D7" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="65">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
         <v>1</v>
       </c>
-      <c r="G7" s="68" t="s">
-        <v>84</v>
+      <c r="G7" s="67" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -3945,17 +3952,17 @@
         <v>2</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F8" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
         <v>2</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -3969,18 +3976,18 @@
       <c r="C9" s="11">
         <v>2</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>59</v>
+      <c r="D9" s="65" t="s">
+        <v>76</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F9" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
         <v>2</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -3995,17 +4002,17 @@
         <v>2</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F10" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
         <v>2</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -4019,18 +4026,18 @@
       <c r="C11" s="11">
         <v>2</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>77</v>
+      <c r="D11" s="65" t="s">
+        <v>78</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F11" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
         <v>2</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -4041,21 +4048,21 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="64">
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F12" s="12">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -4072,6 +4079,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G12" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"In Progress, Completed, Blocked"</formula1>
@@ -4088,8 +4096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:E13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -4141,8 +4149,7 @@
         <v>19.8</v>
       </c>
       <c r="C4" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>20.88</v>
+        <v>20</v>
       </c>
       <c r="D4" s="16">
         <v>21</v>
@@ -4158,8 +4165,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="C5" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>19.759999999999998</v>
+        <v>18</v>
       </c>
       <c r="D5" s="16">
         <v>21</v>
@@ -4175,8 +4181,7 @@
         <v>15.399999999999999</v>
       </c>
       <c r="C6" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>18.64</v>
+        <v>16</v>
       </c>
       <c r="D6" s="16">
         <v>19</v>
@@ -4192,8 +4197,7 @@
         <v>13.2</v>
       </c>
       <c r="C7" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>17.52</v>
+        <v>14</v>
       </c>
       <c r="D7" s="16">
         <v>19</v>
@@ -4209,8 +4213,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>16.399999999999999</v>
+        <v>12</v>
       </c>
       <c r="D8" s="16">
         <v>18</v>
@@ -4226,8 +4229,7 @@
         <v>8.7999999999999989</v>
       </c>
       <c r="C9" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>15.28</v>
+        <v>10</v>
       </c>
       <c r="D9" s="16">
         <v>16</v>
@@ -4243,8 +4245,7 @@
         <v>6.5999999999999979</v>
       </c>
       <c r="C10" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>14.16</v>
+        <v>8</v>
       </c>
       <c r="D10" s="16">
         <v>12</v>
@@ -4260,10 +4261,11 @@
         <v>4.3999999999999986</v>
       </c>
       <c r="C11" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>13.04</v>
-      </c>
-      <c r="D11" s="16"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="16">
+        <v>11</v>
+      </c>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -4275,10 +4277,11 @@
         <v>2.1999999999999993</v>
       </c>
       <c r="C12" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>11.919999999999998</v>
-      </c>
-      <c r="D12" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="D12" s="16">
+        <v>8</v>
+      </c>
       <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -4290,10 +4293,11 @@
         <v>0</v>
       </c>
       <c r="C13" s="15">
-        <f>TotalHours-(Table3[Work Day]*DevRate)</f>
-        <v>10.799999999999999</v>
-      </c>
-      <c r="D13" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
       <c r="E13" s="15"/>
     </row>
   </sheetData>

--- a/ProyectoWeb/3SCRUM/11. PlanificacionSprint1.xlsx
+++ b/ProyectoWeb/3SCRUM/11. PlanificacionSprint1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Espe\Cuarto Semestre\Desarrollo Software\Proyecto\Grupo-MET-de-Software\ProyectoWeb\3SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AA73E9-4743-4867-922D-277BB2526839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632F75E3-7096-4381-BD92-BA9F1D032601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,12 +295,6 @@
     <t>FERNANDO</t>
   </si>
   <si>
-    <t>Consultar Docentes</t>
-  </si>
-  <si>
-    <t>Visualizar la información de cada docente</t>
-  </si>
-  <si>
     <t xml:space="preserve">Visualizar la información de cada docente </t>
   </si>
   <si>
@@ -329,6 +323,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Subir actualización datos de 6 profesores Tiempo Parcial</t>
+  </si>
+  <si>
+    <t>Ingresarinformación de Docentes</t>
+  </si>
+  <si>
+    <t>Usuario podrá visualizar la información de cada docente</t>
   </si>
 </sst>
 </file>
@@ -950,6 +950,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="8" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -957,139 +958,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="8" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="29">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1174,6 +1048,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1204,6 +1096,24 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1243,6 +1153,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1273,6 +1201,24 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1312,6 +1258,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1345,6 +1309,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1360,6 +1342,24 @@
           <color indexed="64"/>
         </right>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2813,34 +2813,34 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="SprintBacklog" displayName="SprintBacklog" ref="A2:G13" totalsRowCount="1" headerRowDxfId="22" dataDxfId="21" totalsRowDxfId="20">
   <autoFilter ref="A2:G12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="18" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Item ID" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>IFERROR(B2+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="16" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="15" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>SprintBacklog[[#This Row],[Estimated Hours]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="13" totalsRowDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="7" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D13" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A2:D13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A2:D13" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Target Burn Down" dataDxfId="2">
       <calculatedColumnFormula>IFERROR(TotalHours-(Table3[Work Day]*(TotalHours/WorkingDays)),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="8">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="1">
       <calculatedColumnFormula>TotalHours-(Table3[Work Day]*DevRate)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3112,7 +3112,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3159,10 +3159,10 @@
         <v>39</v>
       </c>
       <c r="D2" s="40" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F2" s="24" t="s">
         <v>52</v>
@@ -3170,7 +3170,7 @@
       <c r="G2" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="68" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
         <v>66</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>67</v>
@@ -3324,12 +3324,12 @@
       <c r="B4" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
+      <c r="C4" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="61" t="s">
         <v>58</v>
       </c>
@@ -3343,12 +3343,12 @@
       <c r="B5" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="C5" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="61" t="s">
         <v>61</v>
       </c>
@@ -3362,12 +3362,12 @@
       <c r="B6" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
+      <c r="C6" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="61" t="s">
         <v>62</v>
       </c>
@@ -3381,12 +3381,12 @@
       <c r="B7" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="C7" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="51" t="s">
         <v>63</v>
       </c>
@@ -3400,12 +3400,12 @@
       <c r="B8" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="54" t="s">
         <v>63</v>
       </c>
@@ -3417,10 +3417,10 @@
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19"/>
       <c r="B9" s="18"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="18"/>
       <c r="H9" s="58" t="s">
         <v>55</v>
@@ -3502,14 +3502,14 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
+        <v>73</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
       <c r="G13" s="60" t="s">
         <v>61</v>
       </c>
@@ -3520,14 +3520,14 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
+        <v>74</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" t="s">
         <v>58</v>
       </c>
@@ -3538,14 +3538,14 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
+        <v>75</v>
+      </c>
+      <c r="C15" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="61" t="s">
         <v>62</v>
       </c>
@@ -3556,14 +3556,14 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
+        <v>76</v>
+      </c>
+      <c r="C16" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="61" t="s">
         <v>63</v>
       </c>
@@ -3574,14 +3574,14 @@
     </row>
     <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
       <c r="G17" s="62" t="s">
         <v>61</v>
       </c>
@@ -3592,10 +3592,10 @@
     </row>
     <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
       <c r="G18" s="63"/>
       <c r="H18" s="58" t="s">
         <v>55</v>
@@ -3837,7 +3837,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -3862,7 +3862,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -3887,7 +3887,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -3912,7 +3912,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -3937,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -3952,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>68</v>
@@ -3962,7 +3962,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -3977,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>69</v>
@@ -3987,7 +3987,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -4002,7 +4002,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>70</v>
@@ -4012,7 +4012,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -4027,7 +4027,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>71</v>
@@ -4037,7 +4037,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -4052,7 +4052,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>69</v>
@@ -4062,7 +4062,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">

--- a/ProyectoWeb/3SCRUM/11. PlanificacionSprint1.xlsx
+++ b/ProyectoWeb/3SCRUM/11. PlanificacionSprint1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Espe\Cuarto Semestre\Desarrollo Software\Proyecto\Grupo-MET-de-Software\ProyectoWeb\3SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632F75E3-7096-4381-BD92-BA9F1D032601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DEF804-FDD4-40D1-AA1D-281CF1E280E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="21144" windowHeight="9948" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="4" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="81">
   <si>
     <t>Start Date</t>
   </si>
@@ -184,9 +184,6 @@
     <t>Compras</t>
   </si>
   <si>
-    <t xml:space="preserve">Gerente </t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
@@ -196,9 +193,6 @@
     <t>Agregar un proveedor</t>
   </si>
   <si>
-    <t>Vendedor</t>
-  </si>
-  <si>
     <t>Necesito</t>
   </si>
   <si>
@@ -226,15 +220,6 @@
     <t>Agregar un proveedor a la base de datos</t>
   </si>
   <si>
-    <t>HU11</t>
-  </si>
-  <si>
-    <t>HU12</t>
-  </si>
-  <si>
-    <t>No iniciado</t>
-  </si>
-  <si>
     <t>Aceptado</t>
   </si>
   <si>
@@ -329,6 +314,12 @@
   </si>
   <si>
     <t>Usuario podrá visualizar la información de cada docente</t>
+  </si>
+  <si>
+    <t>Docentes</t>
+  </si>
+  <si>
+    <t>Administrador</t>
   </si>
 </sst>
 </file>
@@ -849,7 +840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -893,7 +884,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3111,126 +3101,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" customWidth="1"/>
     <col min="5" max="5" width="54.77734375" customWidth="1"/>
     <col min="6" max="6" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="43" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>82</v>
+      <c r="B2" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>77</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="68" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="3" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A3" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>35</v>
-      </c>
+      <c r="A3" s="34"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="33" t="s">
-        <v>51</v>
-      </c>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="A4" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>35</v>
-      </c>
+      <c r="A4" s="35"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="33" t="s">
-        <v>51</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="31"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="25"/>
       <c r="F5" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="34" t="s">
-        <v>51</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3242,7 +3209,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView topLeftCell="B7" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:F14"/>
+      <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3262,16 +3229,16 @@
         <v>28</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>10</v>
@@ -3283,149 +3250,149 @@
         <v>24</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G2" s="21"/>
       <c r="H2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>36</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
-      <c r="B4" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="52">
+      <c r="B4" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="60"/>
+      <c r="I4" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
-      <c r="B5" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="52">
+      <c r="B5" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="60"/>
+      <c r="I5" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
-      <c r="B6" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="52">
+      <c r="B6" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="60"/>
+      <c r="I6" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
-      <c r="B7" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52">
+      <c r="B7" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19"/>
-      <c r="B8" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="55">
+      <c r="B8" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19"/>
       <c r="B9" s="18"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="59">
+      <c r="H9" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="58">
         <f>SUM(I4:I8)</f>
         <v>13</v>
       </c>
@@ -3442,16 +3409,16 @@
         <v>28</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>10</v>
@@ -3466,150 +3433,150 @@
         <v>34</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="20" t="s">
         <v>36</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
       <c r="B12" s="18"/>
       <c r="C12" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
-      <c r="B13" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="56">
+      <c r="B13" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="59"/>
+      <c r="I13" s="55">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="B14" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
       <c r="G14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="60"/>
+      <c r="I14" s="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="60"/>
+      <c r="I15" s="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52">
+      <c r="H16" s="60"/>
+      <c r="I16" s="51">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="61"/>
-      <c r="I16" s="52">
-        <v>2</v>
-      </c>
-    </row>
     <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="62"/>
-      <c r="I17" s="55">
+      <c r="B17" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="61"/>
+      <c r="I17" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="63"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="59">
+      <c r="B18" s="62"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="58">
         <f>SUM(I13:I17)</f>
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="H19" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="57">
+      <c r="H19" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="56">
         <f>I9+I18</f>
         <v>22</v>
       </c>
@@ -3639,7 +3606,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -3827,17 +3794,17 @@
         <v>3</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F3" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
         <v>3</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -3852,17 +3819,17 @@
         <v>3</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F4" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
         <v>3</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -3877,17 +3844,17 @@
         <v>3</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F5" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
         <v>3</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -3902,42 +3869,42 @@
         <v>3</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F6" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
         <v>3</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="65">
+      <c r="A7" s="64">
         <v>1</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="66">
+      <c r="C7" s="65">
         <v>1</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="65">
+      <c r="F7" s="64">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
         <v>1</v>
       </c>
-      <c r="G7" s="67" t="s">
-        <v>80</v>
+      <c r="G7" s="66" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -3952,17 +3919,17 @@
         <v>2</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F8" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
         <v>2</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -3976,18 +3943,18 @@
       <c r="C9" s="11">
         <v>2</v>
       </c>
-      <c r="D9" s="65" t="s">
-        <v>74</v>
+      <c r="D9" s="64" t="s">
+        <v>69</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F9" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
         <v>2</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -4002,17 +3969,17 @@
         <v>2</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F10" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
         <v>2</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -4026,18 +3993,18 @@
       <c r="C11" s="11">
         <v>2</v>
       </c>
-      <c r="D11" s="65" t="s">
-        <v>76</v>
+      <c r="D11" s="64" t="s">
+        <v>71</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F11" s="11">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
         <v>2</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -4048,21 +4015,21 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="63">
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F12" s="12">
         <f>SprintBacklog[[#This Row],[Estimated Hours]]</f>
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -4096,7 +4063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
